--- a/results/fossdroid/amandroid/amandroid_fossdroid_master.xlsx
+++ b/results/fossdroid/amandroid/amandroid_fossdroid_master.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austin/git/AndroidTAEnvironment/results/fossdroid/amandroid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048AB191-3128-5448-A864-8A0FE5F2CFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10BAA3E-256B-0F45-8285-548418ECED98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37560" yWindow="-3140" windowWidth="37560" windowHeight="21140" activeTab="2" xr2:uid="{C40B28A6-DC33-8644-A5C5-B2ADEAF26554}"/>
+    <workbookView xWindow="-37560" yWindow="-3140" windowWidth="37560" windowHeight="21140" activeTab="1" xr2:uid="{C40B28A6-DC33-8644-A5C5-B2ADEAF26554}"/>
   </bookViews>
   <sheets>
     <sheet name="single_conf_master" sheetId="1" r:id="rId1"/>
     <sheet name="single_conf_pivot" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId4"/>
+    <pivotCache cacheId="20" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="117">
   <si>
     <t>repetition</t>
   </si>
@@ -381,6 +381,15 @@
   <si>
     <t>3</t>
   </si>
+  <si>
+    <t>Total Sum of time</t>
+  </si>
+  <si>
+    <t>Total Sum of num_flows</t>
+  </si>
+  <si>
+    <t>Sum of num_flows</t>
+  </si>
 </sst>
 </file>
 
@@ -501,48 +510,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9E1F2"/>
-          <bgColor rgb="FFD9E1F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -615,11 +582,53 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color rgb="FF8EA9DB"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E1F2"/>
+          <bgColor rgb="FFD9E1F2"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9590,8 +9599,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8B674D1-FF23-C940-9B04-25C6AFEEC823}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8B674D1-FF23-C940-9B04-25C6AFEEC823}" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:I17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
       <items count="4">
@@ -9618,7 +9627,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -9663,25 +9672,41 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
+  <colFields count="2">
+    <field x="-2"/>
     <field x="0"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="8">
     <i>
       <x/>
+      <x/>
     </i>
-    <i>
+    <i r="1">
       <x v="1"/>
     </i>
-    <i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="1">
       <x v="2"/>
     </i>
     <i t="grand">
       <x/>
     </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Sum of time" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of num_flows" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -9714,16 +9739,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6656F9CC-4778-984B-8C3E-7D8EF3DDAE59}" name="Table2" displayName="Table2" ref="A1:F12" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" headerRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6656F9CC-4778-984B-8C3E-7D8EF3DDAE59}" name="Table2" displayName="Table2" ref="A1:F12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7">
   <autoFilter ref="A1:F12" xr:uid="{EEF4972C-CA1A-BE4D-A215-D499A35AA230}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F12">
     <sortCondition ref="F1:F12"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AA3EF710-322D-FD47-8E1B-36E9BABED605}" name="Row Labels" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{1A0BD781-1F05-2145-AEBA-722A52C9DDA5}" name="1" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{29E935EE-9119-F14A-A3EF-4F97C75754DC}" name="2" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{52D12E82-1384-2B4D-8E37-410111E6B86A}" name="3" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{AA3EF710-322D-FD47-8E1B-36E9BABED605}" name="Row Labels" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{1A0BD781-1F05-2145-AEBA-722A52C9DDA5}" name="1" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{29E935EE-9119-F14A-A3EF-4F97C75754DC}" name="2" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{52D12E82-1384-2B4D-8E37-410111E6B86A}" name="3" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{0EEC19EB-FD27-214D-B29F-438966FE17FA}" name="time" dataDxfId="1">
       <calculatedColumnFormula>MEDIAN(Table2[[#This Row],[1]:[3]])/1000/60</calculatedColumnFormula>
     </tableColumn>
@@ -29873,246 +29898,412 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E7D8A6-5358-7E4B-A93A-A773742A4814}">
-  <dimension ref="A3:E16"/>
+  <dimension ref="A3:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>110</v>
-      </c>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>47133120.570535123</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1544614.7065786624</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8524496.0460979417</v>
+      </c>
+      <c r="E6" s="1">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>57202231.32321173</v>
+      </c>
+      <c r="I6" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1">
+        <v>34467459.806213818</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1373895.5496787075</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8458688.6799812689</v>
+      </c>
+      <c r="E7" s="1">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44300044.035873793</v>
+      </c>
+      <c r="I7" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1271399.5664017261</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1479178.3053153178</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8416906.9680059254</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11167484.839722969</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8233281.8501936179</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1438225.2572523421</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8685642.8167205229</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>18357149.924166482</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8450827.1814290714</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1442376.0832499231</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8697062.060324464</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>18590265.32500346</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8099649.3545075608</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1557411.1875568037</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8640913.987824684</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>18297974.529889047</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1">
+        <v>21984774.811326146</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1573251.296396832</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8610788.9549005665</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>32168815.062623546</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9348013.0916568357</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1186374.9597021365</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8578266.9701464362</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>19112655.021505408</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8122059.7944438867</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1379125.0095274281</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9360042.519685803</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>18861227.323657118</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1">
+        <v>53545108.803455427</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1232484.5855329176</v>
+      </c>
+      <c r="D15" s="1">
+        <v>32776742.014652085</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1">
+        <v>87554335.403640434</v>
+      </c>
+      <c r="I15" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1994696.1103649796</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1405771.5696499203</v>
+      </c>
+      <c r="D16" s="1">
+        <v>17804422.986965612</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>21204890.666980512</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>47133120.570535123</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1544614.7065786624</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8524496.0460979417</v>
-      </c>
-      <c r="E5" s="1">
-        <v>57202231.32321173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1">
-        <v>34467459.806213818</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1373895.5496787075</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8458688.6799812689</v>
-      </c>
-      <c r="E6" s="1">
-        <v>44300044.035873793</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1271399.5664017261</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1479178.3053153178</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8416906.9680059254</v>
-      </c>
-      <c r="E7" s="1">
-        <v>11167484.839722969</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>8233281.8501936179</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1438225.2572523421</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8685642.8167205229</v>
-      </c>
-      <c r="E8" s="1">
-        <v>18357149.924166482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8450827.1814290714</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1442376.0832499231</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8697062.060324464</v>
-      </c>
-      <c r="E9" s="1">
-        <v>18590265.32500346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="1">
-        <v>8099649.3545075608</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1557411.1875568037</v>
-      </c>
-      <c r="D10" s="1">
-        <v>8640913.987824684</v>
-      </c>
-      <c r="E10" s="1">
-        <v>18297974.529889047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="1">
-        <v>21984774.811326146</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1573251.296396832</v>
-      </c>
-      <c r="D11" s="1">
-        <v>8610788.9549005665</v>
-      </c>
-      <c r="E11" s="1">
-        <v>32168815.062623546</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="1">
-        <v>9348013.0916568357</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1186374.9597021365</v>
-      </c>
-      <c r="D12" s="1">
-        <v>8578266.9701464362</v>
-      </c>
-      <c r="E12" s="1">
-        <v>19112655.021505408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="1">
-        <v>8122059.7944438867</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1379125.0095274281</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9360042.519685803</v>
-      </c>
-      <c r="E13" s="1">
-        <v>18861227.323657118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="1">
-        <v>53545108.803455427</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1232484.5855329176</v>
-      </c>
-      <c r="D14" s="1">
-        <v>32776742.014652085</v>
-      </c>
-      <c r="E14" s="1">
-        <v>87554335.403640434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1994696.1103649796</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1405771.5696499203</v>
-      </c>
-      <c r="D15" s="1">
-        <v>17804422.986965612</v>
-      </c>
-      <c r="E15" s="1">
-        <v>21204890.666980512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>202650390.94052821</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>15612708.51044099</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <v>128553974.00530532</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1">
         <v>346817073.45627451</v>
+      </c>
+      <c r="I17" s="1">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -30124,7 +30315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7F969C-340A-8E48-A114-47DC6977AA98}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="222" workbookViewId="0">
+    <sheetView zoomScale="222" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
